--- a/medicine/Handicap/Tytgat_Chocolat/Tytgat_Chocolat.xlsx
+++ b/medicine/Handicap/Tytgat_Chocolat/Tytgat_Chocolat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tytgat Chocolat (en anglais Team Chocolate) est une série télévisée belge flamande en coproduction autrichienne et croate de sept épisodes de 50 minutes, créée par Marc Bryssinck et Filip Lenaerts, et diffusée du 10 septembre 2017 au 22 octobre 2017 sur la chaîne Één.
 En France, elle est diffusée sur la plate-forme Netflix.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasper Vloemans est un jeune homme porteur de trisomie 21. Il est engagé dans une fabrique de chocolat familiale, Tytgat Chocolat, qui emploie pour le conditionnement de ses produits principalement des personnes handicapées. La mère muette du directeur de l'entreprise l'observe depuis chez elle, en face de la fabrique, et le voit se faire des amis parmi ses collègues. Mais plusieurs menaces pèsent sur l'entreprise et sur Tina, la nouvelle petite amie de Jasper, originaire du Kosovo.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jelle Palmaerts : Jasper Vloemans
 Mira Bryssinck : Tina Dibrani
@@ -591,10 +607,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Développement
-L'idée de la série vient au réalisateur de télévision Filip Lenaerts et au metteur en scène de théâtre Marc Bryssinck. Ce dernier anime une troupe de théâtre composée de comédiens porteurs de trisomie 21, nommée Theater Stap. Tous deux désiraient créer une série jouée par ces acteurs, qui ont participé à l'élaboration des dialogues[1].
-Fiche technique
-Titre original : Tytgat Chocolat
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de la série vient au réalisateur de télévision Filip Lenaerts et au metteur en scène de théâtre Marc Bryssinck. Ce dernier anime une troupe de théâtre composée de comédiens porteurs de trisomie 21, nommée Theater Stap. Tous deux désiraient créer une série jouée par ces acteurs, qui ont participé à l'élaboration des dialogues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titre original : Tytgat Chocolat
 Titre international : Team Chocolate
 Création : Marc Bryssinck et Filip Lenaerts
 Réalisation : Marc Bryssinck et Filip Lenaerts
@@ -603,45 +659,13 @@
 Montage : Karel Vangrimde
 Casting : Ann Willems
 Musique : Geert Hellings
-Production : deMENSEN[2], VRT
+Production : deMENSEN, VRT
 Sociétés de distribution : Één, Netflix
 Pays d'origine : Belgique
 Langue originale : néerlandais
 Format : couleur - 16/9
 Genre : Drame
-Durée : 7x50 minutes
-Diffusion internationale</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tytgat_Chocolat</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tytgat_Chocolat</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série est composée de sept épisodes sans titres.
-</t>
+Durée : 7x50 minutes</t>
         </is>
       </c>
     </row>
@@ -666,18 +690,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
-Réception critique
-En Belgique, le critique du journal De Morgen regrette une « occasion manquée[3] ».
-Récompenses et distinctions
-Tytgat Chocolat est présenté au Festival Séries Mania en 2017[4].
-La série reçoit le prix de la diversité lors du Festival de Cannes 2017, dans le cadre du MIP TV[5].
-Elle obtient également le prix Europa de la meilleure série télévisée de fiction la même année[6].
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est composée de sept épisodes sans titres.
 </t>
         </is>
       </c>
@@ -703,14 +723,92 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, le critique du journal De Morgen regrette une « occasion manquée ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tytgat Chocolat est présenté au Festival Séries Mania en 2017.
+La série reçoit le prix de la diversité lors du Festival de Cannes 2017, dans le cadre du MIP TV.
+Elle obtient également le prix Europa de la meilleure série télévisée de fiction la même année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tytgat_Chocolat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une adaptation en Belgique francophone est prévue sous le titre Comme les autres, produite par la RTBF[7].
-Une adaptation en Italie a vu le jour sous le titre Ognuno è perfetto[8], diffusée par la RAI[9].
-Il est également question d'une adaptation en anglais de la série[10].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation en Belgique francophone est prévue sous le titre Comme les autres, produite par la RTBF.
+Une adaptation en Italie a vu le jour sous le titre Ognuno è perfetto, diffusée par la RAI.
+Il est également question d'une adaptation en anglais de la série.
 </t>
         </is>
       </c>
